--- a/trans_res.xlsx
+++ b/trans_res.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W1 - Employment" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,32 +16,19 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W9 + W10 - Medicine- GPs" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,27 +43,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -88,17 +61,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -463,11 +433,11 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -507,6 +477,15 @@
           <t>adult training program</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>成人培训计划</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -738,6 +717,15 @@
           <t>long service leave</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>长期服务假</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -841,6 +829,11 @@
           <t>reasonable steps to obtain work</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -949,6 +942,7 @@
           <t>For example , blue collar whose job usually requires manual labor.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>蓝领工作</t>
@@ -959,6 +953,7 @@
           <t>蓝领大家都知道，指的一般是体力劳动者。</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1163,6 +1158,7 @@
           <t>The manager has taken sick leave due to his temporary incapacity through illness.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>暂时丧失工作能力</t>
@@ -1173,6 +1169,7 @@
           <t>经理因病暂时不能工作，已经请了病假。</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1276,6 +1273,15 @@
           <t>bridging training</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>桥接培训</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1539,6 +1545,15 @@
           <t>leave entitlements</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>休假权利</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1770,6 +1785,15 @@
           <t>paid on a pro-rata basis</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>按比例支付</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1841,6 +1865,11 @@
           <t>recognition of overseas qualifications</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1976,6 +2005,11 @@
           <t>to be actively looking for work</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2015,6 +2049,11 @@
           <t>employment separation certificate</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2054,6 +2093,15 @@
           <t>incapacity to work</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>丧失工作能力</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2061,6 +2109,15 @@
           <t>approved voluntary work</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>批准的志愿工作</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2105,6 +2162,7 @@
           <t>In the past year , 18 % of organisations have provided remedial literacy and numeracy training for school-leavers , and 22 % remedial IT.</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>识字和计算能力培训</t>
@@ -2115,6 +2173,7 @@
           <t>在过去一年中，18%的组织为毕业生提供了文字和数字相关的再培训，22%提供了电脑再培训。</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2154,6 +2213,15 @@
           <t>suitable paid work</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>适当的有偿工作</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2193,6 +2261,15 @@
           <t>to understate your income</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>少报收入</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2200,6 +2277,15 @@
           <t>to work for 'the dole'</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>为“救济金”工作</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2271,6 +2357,15 @@
           <t>self-employment development</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>自营职业发展</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2374,6 +2469,15 @@
           <t>casualisation of workforce</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>劳动力的随意化</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2477,6 +2581,11 @@
           <t>flexible working hours, 'flexitime'</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2484,6 +2593,15 @@
           <t>job capacity assessment</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>工作能力评估</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2720,6 +2838,7 @@
           <t>The CPF Board must be satisfied that the applicant has truly been retrenched by his employer , and not someone who chose to be retrenched because he does not feel like working.</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>被裁减</t>
@@ -2730,6 +2849,7 @@
           <t>申请者也须是真正被裁的员工，而不是不想工作打算吃老本。</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2934,6 +3054,7 @@
           <t>Use the Rotary Club of kano 's example to assist in designing literacy and microenterprise projects.</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
           <t>微型企业</t>
@@ -2944,6 +3065,7 @@
           <t>请利用卡诺扶轮社为本来规划识字与小型企业计画。</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3052,6 +3174,7 @@
           <t>This paper introduces the background , important facilities , management and benefits of the CAP.</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>福利上限</t>
@@ -3062,6 +3185,7 @@
           <t>主要介绍中央亚利桑那工程的建设背景、关键工程设施、工程管理和工程效益等方面的内容。</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3069,10 +3193,18 @@
           <t>on-going employment</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>持续就业</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3088,7 +3220,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3224,6 +3356,15 @@
           <t>clothes hoist</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>衣物升降机</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3263,6 +3404,15 @@
           <t>cracked plaster</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>开裂的灰泥</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3371,6 +3521,7 @@
           <t>Internal finishes , furnishings and fittings have been selected with a view to keeping the gaseous emissions from chemicals to a minimum.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>家具和配件</t>
@@ -3381,6 +3532,7 @@
           <t>室内漆、家具和装修都是以使挥发的化学物质降低到最低限度的观点来选择的。</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3388,6 +3540,15 @@
           <t>flyscreen</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>飞筛</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3427,6 +3588,15 @@
           <t>low-rise block</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>低层砌块</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3567,6 +3737,7 @@
           <t>The SFR Series wall racks simplify cable management and provide easier equipment rear access.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>后部通道</t>
@@ -3577,6 +3748,7 @@
           <t>SFR系列壁盒简化了缆线的管理模式，为其他设备的接入提供了更为便捷的接口。</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3712,6 +3884,15 @@
           <t>weatherboard</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>挡雨板</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3783,6 +3964,15 @@
           <t>to bid at an auction</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>在拍卖会上出价</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3987,6 +4177,7 @@
           <t>The deceased willed his vast estate to his daughters.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>已故遗产</t>
@@ -3997,6 +4188,7 @@
           <t>死者将自己大量的不动产遗赠给了他的女儿们。</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4004,6 +4196,15 @@
           <t>deferred stamp duty</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>递延印花税</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4080,6 +4281,7 @@
           <t>A unit title , under the Unit Titles Act1972 , provides individual ownership or freehold title in multi unit developments.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>不动产所有权</t>
@@ -4090,6 +4292,7 @@
           <t>根据房产条例第1972条，房屋产权指单房所有权或者（按照）多房（开发的）不动产所有权。</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4161,6 +4364,15 @@
           <t>improved capital value</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>提高资本价值</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4360,6 +4572,15 @@
           <t>to be 'passed in' at auction</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>在拍卖会上“传递”</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4399,6 +4620,15 @@
           <t>reducible finance</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>可还原金融</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4406,6 +4636,15 @@
           <t>to re-mortgage</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>重新抵押</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4669,6 +4908,15 @@
           <t>unencumbured</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>未记录</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4900,6 +5148,15 @@
           <t>to draw up a lease</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>起草租约</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4907,6 +5164,11 @@
           <t>to fall behind with rental payments</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5138,6 +5400,15 @@
           <t>per calendar month (PCM)</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>每个日历月（PCM）</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5145,6 +5416,15 @@
           <t>priority housing list</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>优先住房清单</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5152,6 +5432,15 @@
           <t>property inspection report</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>财产检查报告</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5159,6 +5448,11 @@
           <t>Victorian Civil and Administrative Tribunal (Residential Tenancies List)</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5294,6 +5588,15 @@
           <t>tenant liability</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>承租人责任</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5333,6 +5636,15 @@
           <t>vacant inspection</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>空置检查</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5345,6 +5657,7 @@
           <t>Saving money , clean hygiene that you think of board and lodgings?</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>食宿</t>
@@ -5355,6 +5668,7 @@
           <t>你想食宿省钱、干净卫生吗？</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5554,6 +5868,15 @@
           <t>public housing renewal program</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>公共住房更新计划</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5566,6 +5889,7 @@
           <t>There is a crisis in accommodation services for people with a disability.</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>危机应对措施</t>
@@ -5576,6 +5900,7 @@
           <t>有一种危机住宿服务为残疾人士。</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5658,7 +5983,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5698,6 +6023,15 @@
           <t>remote area allowance</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>偏远地区津贴</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5705,6 +6039,15 @@
           <t>carer's allowance</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>护理人员津贴</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5712,6 +6055,15 @@
           <t>double orphan's pension</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>双倍孤儿抚恤金</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5719,6 +6071,15 @@
           <t>widow's allowance</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>寡妇扶养费</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5726,6 +6087,15 @@
           <t>parenting payment</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>抚养费</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5733,6 +6103,15 @@
           <t>bereavement allowance</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>丧亲津贴</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5772,6 +6151,15 @@
           <t>family tax benefit</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>家庭税收优惠</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5784,6 +6172,7 @@
           <t>Introduction of Mobility Allowance Shuttle Transit System ( MAST ) and the Summary of Its ResearchProgress</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>流动津贴</t>
@@ -5794,6 +6183,7 @@
           <t>机动式辅助客运系统（MAST）及其研究进展综述</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5801,6 +6191,11 @@
           <t>living away from home allowance</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5808,6 +6203,15 @@
           <t>additional supporting evidence</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>其他支持证据</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6071,6 +6475,15 @@
           <t>review of entitlements</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>审查应享权利</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6142,6 +6555,15 @@
           <t>free pharmaceuticals</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>免费药品</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6186,6 +6608,7 @@
           <t>Waterloo Regional Police say they 're conducting a review into why an officer pulled over three topless female cyclists on the weekend.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>审查官员</t>
@@ -6196,6 +6619,7 @@
           <t>周末，一名警官将三名袒胸骑单车的女子拦在路边。滑铁卢区警方称，他们正在调查原因。</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6272,6 +6696,7 @@
           <t>The listing date of bonds shall be the third working day after the registration date of claim and debt for the bonds issued at that period.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>索赔日期</t>
@@ -6282,6 +6707,7 @@
           <t>债券的上市日期为当期发行债券的债权债务登记日后的第三个工作日。</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6417,6 +6843,15 @@
           <t>separated under one roof</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>在一个屋顶下分开</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6424,6 +6859,15 @@
           <t>couneslling services</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>咨询服务</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6500,6 +6944,7 @@
           <t>He was at our drop-in centre.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>降落中心</t>
@@ -6510,6 +6955,7 @@
           <t>那天他在我们的活动中心。</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6549,6 +6995,15 @@
           <t>aged care assessment services</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>老年护理评估服务</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6593,6 +7048,7 @@
           <t>Under her influence we became a blended family and a good relationship developed between the two families.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>混合族</t>
@@ -6603,6 +7059,7 @@
           <t>在她的影响下，我们成为了一个混合家庭，还发展成了很好的家庭关系。</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6770,6 +7227,15 @@
           <t>exemption form</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>豁免表格</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6809,6 +7275,11 @@
           <t>false or misleading information</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6853,6 +7324,7 @@
           <t>He added that another county government had agreed to pay off its debt in monthly instalments of Rmb6m after it was threatened with legal action.</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>分期付款</t>
@@ -6863,6 +7335,7 @@
           <t>他补充说，在威胁采取法律行动后，另一个县政府已同意以每月600万元人民币按月分期偿债。</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6966,6 +7439,15 @@
           <t>social background report</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>社会背景报告</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7293,6 +7775,15 @@
           <t>special needs household</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>特殊需要家庭</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7716,6 +8207,11 @@
           <t>substantially-reduced functional capacity</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7792,6 +8288,7 @@
           <t>The forces must satisfy the conditions of equilibrium and produce deformations compatible with the continuity of structure and the support conditions.</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>支持的连续性</t>
@@ -7802,6 +8299,7 @@
           <t>所有力必须满足平衡条件并产生与结构连续性与支承条件相协调的变形。</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7910,6 +8408,7 @@
           <t>To seek competitive differentiation , brand advocacy services to become the cornerstone of the survival and development has become a powerful weapon of competition.</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>宣传服务</t>
@@ -7920,6 +8419,7 @@
           <t>寻求差异化竞争、倡导服务品牌成为企业生存和发展的基石，成为竞争的有力武器。</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7932,6 +8432,7 @@
           <t>The second chapter briefs the historical development and offers an analysis of the status quo of the AG system , incorporating Guardian System in ancient Rome , current Guardian System in France , Tending System in German and the Enduring Power of Attorney Act of common law systems.</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>持久授权书</t>
@@ -7942,6 +8443,7 @@
           <t>第二章描述成年监护制度的历史发展和现状，古罗马的监护制度、现行法国监护制度、德国照管制度以及英美法系的持续性代理制度。</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7981,6 +8483,15 @@
           <t>home care package</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>家庭护理套餐</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8052,6 +8563,15 @@
           <t>notice of non-compliance</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>不合规通知</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8091,6 +8611,15 @@
           <t>re-ablement</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>重新启用</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8098,6 +8627,11 @@
           <t>veteran and war widow/widower pension</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8148,7 +8682,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -8284,6 +8818,11 @@
           <t>balance brought forward from last account</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8323,6 +8862,15 @@
           <t>to bargain / to haggle</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>讨价还价</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8458,6 +9006,11 @@
           <t>Chamber of Commerce and Industry</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8529,6 +9082,11 @@
           <t>Certified Public Accountang (CPA)</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8536,6 +9094,11 @@
           <t>cost, insurance and freight (CIF)</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8548,6 +9111,7 @@
           <t>It supports several payment methods , remittances , Cash on Delivery ( COD ), credit cards.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>货到付款（COD）</t>
@@ -8558,6 +9122,7 @@
           <t>它支持各种类型的支付手段、汇款、现金交易（COD）以及信用卡。</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8661,6 +9226,15 @@
           <t>deficit covering bonds</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>弥补赤字的债券</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8828,6 +9402,15 @@
           <t>enterprise rationalisation</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>企业合理化</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8963,6 +9546,15 @@
           <t>field salesperson</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>现场销售人员</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9130,6 +9722,11 @@
           <t>GATT (General Agreement on Tariffs and Trade)</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9169,6 +9766,11 @@
           <t>general meeting of shareholders</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9240,6 +9842,15 @@
           <t>Incorporated (Inc)</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>公司（Inc）</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9343,6 +9954,11 @@
           <t>IMF (International Monetary Fund)</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9606,6 +10222,15 @@
           <t>PAYE (pay as you earn tax)</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PAYE（按所得税支付）</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9869,6 +10494,15 @@
           <t>sundry account</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>杂项账户</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9940,6 +10574,15 @@
           <t>to take back unsold stock</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>收回未售出的库存</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10107,6 +10750,11 @@
           <t>Australian Competition and Consumers Commission (ACCC)</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10530,6 +11178,15 @@
           <t>rollover fund</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>展期基金</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10935,32 +11592,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Example of term used in context / Definition of term</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Other (e.g. Title of source article/page/ section)</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Term.1</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Example of term used in context / Definition of term.1</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Other (e.g. Title of source article/page/ section).1</t>
         </is>
@@ -11038,7 +11695,11 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>商品及服务税</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -11146,7 +11807,11 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>未付款期限</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -11254,7 +11919,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>现金管理信托</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -11298,7 +11967,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>定期存款</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -11718,7 +12391,11 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>实现投资</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -11762,7 +12439,11 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>破产管理</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
     </row>
@@ -12014,7 +12695,11 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>招待津贴</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
     </row>
@@ -12122,7 +12807,11 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>未申报收入</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
     </row>
@@ -12230,7 +12919,11 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>收入相关支出</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
     </row>
@@ -12242,7 +12935,11 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>专业团体订阅</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
     </row>
@@ -12254,7 +12951,11 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>自学费用</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
     </row>
@@ -12266,7 +12967,11 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>税务代理费</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
     </row>
@@ -12334,7 +13039,11 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>基本健康和医疗保险</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
     </row>
@@ -12346,7 +13055,11 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>医疗保险回扣税</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
     </row>
@@ -12358,7 +13071,11 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>主要居住地</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
     </row>
@@ -12370,7 +13087,11 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>费率和土地税</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
     </row>
@@ -12382,7 +13103,11 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>按比例返利</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
     </row>
@@ -12394,7 +13119,11 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>审核报税表</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
     </row>
@@ -12634,7 +13363,11 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>车辆折旧限额</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
     </row>
@@ -12646,7 +13379,11 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>经营企业</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
     </row>
@@ -12734,7 +13471,11 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>海关保税仓库</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
     </row>
@@ -12778,7 +13519,11 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>消费税或关税进口</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
     </row>
@@ -12822,7 +13567,11 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>金融机构职责</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
     </row>
@@ -12834,7 +13583,11 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>附加福利税免税</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
     </row>
@@ -12846,7 +13599,11 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>燃油回扣</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
     </row>
@@ -12858,7 +13615,11 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>商品及服务税登记</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
     </row>
@@ -12882,7 +13643,11 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>豪华车税</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
     </row>
@@ -12894,7 +13659,11 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>非商业活动</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
     </row>
@@ -12938,7 +13707,11 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>汇出商品及服务税</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
     </row>
@@ -12982,7 +13755,11 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>自筹退休人员</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
     </row>
@@ -12994,7 +13771,11 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>须缴纳商品及服务税</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
     </row>
@@ -13030,7 +13811,11 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>烟草消费税</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
     </row>
@@ -13298,7 +14083,11 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>收入相关支出</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
     </row>
@@ -13342,7 +14131,11 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>最大返利</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
     </row>
@@ -13354,7 +14147,11 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>待征收进项税</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
     </row>
@@ -13506,32 +14303,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Example of term used in context / Definition of term</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Other (e.g. Title of source article/page/ section)</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Term.1</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Example of term used in context / Definition of term.1</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Other (e.g. Title of source article/page/ section).1</t>
         </is>
@@ -13929,7 +14726,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>离境后费用</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -14005,7 +14806,11 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大宗票价</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -14373,7 +15178,11 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>合作巡演</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
     </row>
@@ -14537,7 +15346,11 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>地面旅游经营商</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
     </row>
@@ -14741,7 +15554,11 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>人造吸引力</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
     </row>
@@ -15281,7 +16098,11 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>至“双簿”</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
     </row>
@@ -15509,7 +16330,11 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>短途飞行</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
     </row>
@@ -15585,7 +16410,11 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>特别活动巡演</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
     </row>
@@ -15629,7 +16458,11 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>旅游顾问</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
     </row>
@@ -15769,7 +16602,11 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>社区旅游伙伴关系</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
     </row>
@@ -15877,7 +16714,11 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>出境旅游经营者</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
     </row>
@@ -16113,7 +16954,11 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>开放日期票据</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
     </row>
@@ -16253,7 +17098,11 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>无随身行李</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
     </row>
@@ -16329,7 +17178,11 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>使自己适应</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
     </row>
@@ -16417,32 +17270,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Example of term used in context / Definition of term</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Other (e.g. Title of source article/page/ section)</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Term.1</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Example of term used in context / Definition of term.1</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Other (e.g. Title of source article/page/ section).1</t>
         </is>
@@ -17000,7 +17853,11 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>口臭-口臭</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -17108,7 +17965,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>脑电图</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -17120,7 +17981,11 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>面肌痉挛（tic）</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -17260,7 +18125,11 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>nits（虱子）</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -17304,7 +18173,11 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>窦（es）</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
     </row>
@@ -17668,7 +18541,11 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>偏袒一只眼睛</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
     </row>
@@ -17840,7 +18717,11 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>肌肉控制不佳</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
     </row>
@@ -18076,7 +18957,11 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>沸腾，沸腾</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
     </row>
@@ -18216,7 +19101,11 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>剥落/剥落</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
     </row>
@@ -18968,7 +19857,11 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>血细胞（白细胞和红细胞）</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
     </row>
@@ -19044,7 +19937,11 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>心电图（ECG）</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
     </row>
@@ -19668,7 +20565,11 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>肠道（大肠和小肠）</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
     </row>
@@ -19840,7 +20741,11 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>大便/粪便</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
     </row>
@@ -19884,7 +20789,11 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>样本/尿液测试</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
     </row>
@@ -20080,7 +20989,11 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>RSI（重复性劳损）</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
     </row>
@@ -20444,7 +21357,11 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>至大宗票据</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
     </row>
@@ -20584,7 +21501,11 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>当天手术</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
     </row>
